--- a/data/gantt-fripro2024.xlsx
+++ b/data/gantt-fripro2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anders.kolstad\Github\gantts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F482D9ED-9E1B-42AB-AFD5-59885A68929B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C0633D-C347-4575-B366-C1C38A1FB346}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15195" xr2:uid="{7DC26D3F-32DE-4779-AA7D-9BBE0416AE47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{7DC26D3F-32DE-4779-AA7D-9BBE0416AE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -65,37 +65,37 @@
     <t>WP3 - Systematic reviews</t>
   </si>
   <si>
-    <t>WP4 - Indicator development</t>
-  </si>
-  <si>
     <t>WP5 - Communication modules</t>
   </si>
   <si>
     <t>T5.1 Write EA textbook</t>
   </si>
   <si>
-    <t>T5.2 ECA desktop</t>
-  </si>
-  <si>
-    <t>T5.3 Presentations</t>
-  </si>
-  <si>
-    <t>T3.1 Systematic map on the use of EC indicators</t>
-  </si>
-  <si>
-    <t>T.4.3 eaTools</t>
-  </si>
-  <si>
-    <t>T4.2 Web app for indicator documentation</t>
-  </si>
-  <si>
-    <t>T4.1 Develop and publish indicator workflow(s)</t>
-  </si>
-  <si>
-    <t>T2.1 Populate the knowledge map</t>
-  </si>
-  <si>
-    <t>T3.2 Other systematic reviews</t>
+    <t>WP4 - Indicator documentation</t>
+  </si>
+  <si>
+    <t>T2.1 Expert groups</t>
+  </si>
+  <si>
+    <t>T2.2 User survey</t>
+  </si>
+  <si>
+    <t>T3.1 Systematic map</t>
+  </si>
+  <si>
+    <t>T3.2 Systematic review</t>
+  </si>
+  <si>
+    <t>T4.1 Web app</t>
+  </si>
+  <si>
+    <t>T4.1 Document and publish indicator workflows</t>
+  </si>
+  <si>
+    <t>T5.2 Presentations</t>
+  </si>
+  <si>
+    <t>T5.3 Reporting standards</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -506,10 +506,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>36</v>
@@ -517,16 +517,16 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -534,66 +534,66 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>12</v>
-      </c>
-      <c r="D6">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>48</v>
@@ -601,13 +601,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>28</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
         <v>13</v>
       </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
       <c r="D12">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
